--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Sybil_test/300nodes/300.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Sybil_test/300nodes/300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据（SWIB）\Sybil_test\300nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27185CC4-5CC5-4964-85B1-6D74250F5E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44979CEB-F153-49B5-AC98-11ABA1C2942A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1516,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView topLeftCell="B46" workbookViewId="0">
+    <sheetView topLeftCell="B40" workbookViewId="0">
       <selection activeCell="Y49" sqref="Y49:Z58"/>
     </sheetView>
   </sheetViews>
@@ -8496,7 +8496,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
